--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H2">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I2">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J2">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.8260174558339</v>
+        <v>11.76011933333333</v>
       </c>
       <c r="N2">
-        <v>10.8260174558339</v>
+        <v>35.280358</v>
       </c>
       <c r="O2">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="P2">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="Q2">
-        <v>295.2826862153951</v>
+        <v>334.9547804030664</v>
       </c>
       <c r="R2">
-        <v>295.2826862153951</v>
+        <v>3014.593023627598</v>
       </c>
       <c r="S2">
-        <v>0.03519941242203679</v>
+        <v>0.03410036914345536</v>
       </c>
       <c r="T2">
-        <v>0.03519941242203679</v>
+        <v>0.03410036914345536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H3">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I3">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J3">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.82282273237842</v>
+        <v>3.903127666666666</v>
       </c>
       <c r="N3">
-        <v>3.82282273237842</v>
+        <v>11.709383</v>
       </c>
       <c r="O3">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="P3">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="Q3">
-        <v>104.2685705936751</v>
+        <v>111.1698983162359</v>
       </c>
       <c r="R3">
-        <v>104.2685705936751</v>
+        <v>1000.529084846123</v>
       </c>
       <c r="S3">
-        <v>0.01242941963859606</v>
+        <v>0.01131775031143677</v>
       </c>
       <c r="T3">
-        <v>0.01242941963859606</v>
+        <v>0.01131775031143677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H4">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I4">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J4">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.5473960849667</v>
+        <v>50.38343933333334</v>
       </c>
       <c r="N4">
-        <v>46.5473960849667</v>
+        <v>151.150318</v>
       </c>
       <c r="O4">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="P4">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="Q4">
-        <v>1269.593385413789</v>
+        <v>1435.034235580706</v>
       </c>
       <c r="R4">
-        <v>1269.593385413789</v>
+        <v>12915.30812022636</v>
       </c>
       <c r="S4">
-        <v>0.1513429105994766</v>
+        <v>0.1460949358833225</v>
       </c>
       <c r="T4">
-        <v>0.1513429105994766</v>
+        <v>0.1460949358833225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H5">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I5">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J5">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.48293564440666</v>
+        <v>6.432523333333333</v>
       </c>
       <c r="N5">
-        <v>2.48293564440666</v>
+        <v>19.29757</v>
       </c>
       <c r="O5">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993266</v>
       </c>
       <c r="P5">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993268</v>
       </c>
       <c r="Q5">
-        <v>67.72277153361355</v>
+        <v>183.2128041802411</v>
       </c>
       <c r="R5">
-        <v>67.72277153361355</v>
+        <v>1648.91523762217</v>
       </c>
       <c r="S5">
-        <v>0.008072947981230986</v>
+        <v>0.01865214237825108</v>
       </c>
       <c r="T5">
-        <v>0.008072947981230986</v>
+        <v>0.01865214237825109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H6">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I6">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J6">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.8260174558339</v>
+        <v>11.76011933333333</v>
       </c>
       <c r="N6">
-        <v>10.8260174558339</v>
+        <v>35.280358</v>
       </c>
       <c r="O6">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="P6">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="Q6">
-        <v>903.3874448313724</v>
+        <v>981.3947808167799</v>
       </c>
       <c r="R6">
-        <v>903.3874448313724</v>
+        <v>8832.553027351018</v>
       </c>
       <c r="S6">
-        <v>0.1076890340408032</v>
+        <v>0.09991176797369954</v>
       </c>
       <c r="T6">
-        <v>0.1076890340408032</v>
+        <v>0.09991176797369954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H7">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I7">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J7">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82282273237842</v>
+        <v>3.903127666666666</v>
       </c>
       <c r="N7">
-        <v>3.82282273237842</v>
+        <v>11.709383</v>
       </c>
       <c r="O7">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="P7">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="Q7">
-        <v>318.9991217301813</v>
+        <v>325.7202594935326</v>
       </c>
       <c r="R7">
-        <v>318.9991217301813</v>
+        <v>2931.482335441793</v>
       </c>
       <c r="S7">
-        <v>0.03802654937871108</v>
+        <v>0.03316024053415732</v>
       </c>
       <c r="T7">
-        <v>0.03802654937871108</v>
+        <v>0.03316024053415733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H8">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I8">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J8">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.5473960849667</v>
+        <v>50.38343933333334</v>
       </c>
       <c r="N8">
-        <v>46.5473960849667</v>
+        <v>151.150318</v>
       </c>
       <c r="O8">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="P8">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="Q8">
-        <v>3884.192260385827</v>
+        <v>4204.55294711002</v>
       </c>
       <c r="R8">
-        <v>3884.192260385827</v>
+        <v>37840.97652399018</v>
       </c>
       <c r="S8">
-        <v>0.4630182929183737</v>
+        <v>0.4280482499969785</v>
       </c>
       <c r="T8">
-        <v>0.4630182929183737</v>
+        <v>0.4280482499969785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H9">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I9">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J9">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.48293564440666</v>
+        <v>6.432523333333333</v>
       </c>
       <c r="N9">
-        <v>2.48293564440666</v>
+        <v>19.29757</v>
       </c>
       <c r="O9">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993266</v>
       </c>
       <c r="P9">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993268</v>
       </c>
       <c r="Q9">
-        <v>207.1909542573791</v>
+        <v>536.8010857612745</v>
       </c>
       <c r="R9">
-        <v>207.1909542573791</v>
+        <v>4831.209771851471</v>
       </c>
       <c r="S9">
-        <v>0.02469836597090877</v>
+        <v>0.05464951167151492</v>
       </c>
       <c r="T9">
-        <v>0.02469836597090877</v>
+        <v>0.05464951167151493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H10">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I10">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J10">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.8260174558339</v>
+        <v>11.76011933333333</v>
       </c>
       <c r="N10">
-        <v>10.8260174558339</v>
+        <v>35.280358</v>
       </c>
       <c r="O10">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="P10">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="Q10">
-        <v>152.2050644288338</v>
+        <v>173.8298950222376</v>
       </c>
       <c r="R10">
-        <v>152.2050644288338</v>
+        <v>1564.469055200138</v>
       </c>
       <c r="S10">
-        <v>0.01814372831749821</v>
+        <v>0.01769690697142272</v>
       </c>
       <c r="T10">
-        <v>0.01814372831749821</v>
+        <v>0.01769690697142273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H11">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I11">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J11">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.82282273237842</v>
+        <v>3.903127666666666</v>
       </c>
       <c r="N11">
-        <v>3.82282273237842</v>
+        <v>11.709383</v>
       </c>
       <c r="O11">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="P11">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="Q11">
-        <v>53.74580104414298</v>
+        <v>57.6933152907681</v>
       </c>
       <c r="R11">
-        <v>53.74580104414298</v>
+        <v>519.239837616913</v>
       </c>
       <c r="S11">
-        <v>0.006406811862736607</v>
+        <v>0.005873519243873849</v>
       </c>
       <c r="T11">
-        <v>0.006406811862736607</v>
+        <v>0.00587351924387385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H12">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I12">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J12">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.5473960849667</v>
+        <v>50.38343933333334</v>
       </c>
       <c r="N12">
-        <v>46.5473960849667</v>
+        <v>151.150318</v>
       </c>
       <c r="O12">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="P12">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="Q12">
-        <v>654.4188062701661</v>
+        <v>744.7329165570776</v>
       </c>
       <c r="R12">
-        <v>654.4188062701661</v>
+        <v>6702.596249013698</v>
       </c>
       <c r="S12">
-        <v>0.07801052528300791</v>
+        <v>0.07581819652586749</v>
       </c>
       <c r="T12">
-        <v>0.07801052528300791</v>
+        <v>0.07581819652586749</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H13">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I13">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J13">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.48293564440666</v>
+        <v>6.432523333333333</v>
       </c>
       <c r="N13">
-        <v>2.48293564440666</v>
+        <v>19.29757</v>
       </c>
       <c r="O13">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993266</v>
       </c>
       <c r="P13">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993268</v>
       </c>
       <c r="Q13">
-        <v>34.90807042121601</v>
+        <v>95.08108073291888</v>
       </c>
       <c r="R13">
-        <v>34.90807042121601</v>
+        <v>855.72972659627</v>
       </c>
       <c r="S13">
-        <v>0.004161244884901833</v>
+        <v>0.009679813936823373</v>
       </c>
       <c r="T13">
-        <v>0.004161244884901833</v>
+        <v>0.009679813936823375</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H14">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I14">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J14">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.8260174558339</v>
+        <v>11.76011933333333</v>
       </c>
       <c r="N14">
-        <v>10.8260174558339</v>
+        <v>35.280358</v>
       </c>
       <c r="O14">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="P14">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="Q14">
-        <v>75.30330396202795</v>
+        <v>103.5895599532356</v>
       </c>
       <c r="R14">
-        <v>75.30330396202795</v>
+        <v>932.30603957912</v>
       </c>
       <c r="S14">
-        <v>0.008976591505835548</v>
+        <v>0.01054602722660857</v>
       </c>
       <c r="T14">
-        <v>0.008976591505835548</v>
+        <v>0.01054602722660857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H15">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I15">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J15">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.82282273237842</v>
+        <v>3.903127666666666</v>
       </c>
       <c r="N15">
-        <v>3.82282273237842</v>
+        <v>11.709383</v>
       </c>
       <c r="O15">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="P15">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="Q15">
-        <v>26.59068151179777</v>
+        <v>34.38088219779111</v>
       </c>
       <c r="R15">
-        <v>26.59068151179777</v>
+        <v>309.42793978012</v>
       </c>
       <c r="S15">
-        <v>0.003169763785046465</v>
+        <v>0.003500176271589633</v>
       </c>
       <c r="T15">
-        <v>0.003169763785046465</v>
+        <v>0.003500176271589634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H16">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I16">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J16">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.5473960849667</v>
+        <v>50.38343933333334</v>
       </c>
       <c r="N16">
-        <v>46.5473960849667</v>
+        <v>151.150318</v>
       </c>
       <c r="O16">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="P16">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="Q16">
-        <v>323.7730523091201</v>
+        <v>443.8048765948355</v>
       </c>
       <c r="R16">
-        <v>323.7730523091201</v>
+        <v>3994.24388935352</v>
       </c>
       <c r="S16">
-        <v>0.03859562965048721</v>
+        <v>0.04518194993765491</v>
       </c>
       <c r="T16">
-        <v>0.03859562965048721</v>
+        <v>0.04518194993765492</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H17">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I17">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J17">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.48293564440666</v>
+        <v>6.432523333333333</v>
       </c>
       <c r="N17">
-        <v>2.48293564440666</v>
+        <v>19.29757</v>
       </c>
       <c r="O17">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993266</v>
       </c>
       <c r="P17">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993268</v>
       </c>
       <c r="Q17">
-        <v>17.27073305688721</v>
+        <v>56.66118196608889</v>
       </c>
       <c r="R17">
-        <v>17.27073305688721</v>
+        <v>509.9506376948</v>
       </c>
       <c r="S17">
-        <v>0.00205877176034909</v>
+        <v>0.005768441993343284</v>
       </c>
       <c r="T17">
-        <v>0.00205877176034909</v>
+        <v>0.005768441993343286</v>
       </c>
     </row>
   </sheetData>
